--- a/mbs-perturbation/nano/MLP/smote/nano-mlp-smote-results.xlsx
+++ b/mbs-perturbation/nano/MLP/smote/nano-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.9739583333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6572769953051644</v>
+        <v>0.8779342723004695</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.9234567901234567</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9461629590627879</v>
+        <v>0.9914439910490983</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.941747572815534</v>
+        <v>0.9402985074626866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4532710280373832</v>
+        <v>0.883177570093458</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6119873817034701</v>
+        <v>0.9108433734939759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9544337677153262</v>
+        <v>0.9777543767276557</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.8812785388127854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5164319248826291</v>
+        <v>0.9061032863849765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5670103092783506</v>
+        <v>0.8935185185185185</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7137913553307325</v>
+        <v>0.964645462760916</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8160919540229885</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.9436619718309859</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4733333333333333</v>
+        <v>0.7335766423357664</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8071039696709206</v>
+        <v>0.7171196191231899</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.5284974093264249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2535211267605634</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4044943820224718</v>
+        <v>0.6811352253756261</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7158301924221383</v>
+        <v>0.7463686658290903</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8627126546581492</v>
+        <v>0.7848065577870461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4427668816638146</v>
+        <v>0.913724715896626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5652112351136791</v>
+        <v>0.8285061099694687</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8274644488403812</v>
+        <v>0.8794664230979901</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/MLP/smote/nano-mlp-smote-results.xlsx
+++ b/mbs-perturbation/nano/MLP/smote/nano-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9739583333333334</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8779342723004695</v>
+        <v>0.9432989690721649</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9234567901234567</v>
+        <v>0.7190569744597251</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9914439910490983</v>
+        <v>0.5851046870018068</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9402985074626866</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C3" t="n">
-        <v>0.883177570093458</v>
+        <v>0.8860103626943006</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9108433734939759</v>
+        <v>0.9095744680851064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9777543767276557</v>
+        <v>0.9783398322739171</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8812785388127854</v>
+        <v>0.7634854771784232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9061032863849765</v>
+        <v>0.9533678756476683</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8935185185185185</v>
+        <v>0.847926267281106</v>
       </c>
       <c r="E4" t="n">
-        <v>0.964645462760916</v>
+        <v>0.8950910741947545</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6</v>
+        <v>0.8403755868544601</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9436619718309859</v>
+        <v>0.9226804123711341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7335766423357664</v>
+        <v>0.8796068796068797</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7171196191231899</v>
+        <v>0.9092730089204637</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5284974093264249</v>
+        <v>0.7449392712550608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.9484536082474226</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6811352253756261</v>
+        <v>0.8344671201814058</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7463686658290903</v>
+        <v>0.9165909940708296</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7848065577870461</v>
+        <v>0.7728357891497043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.913724715896626</v>
+        <v>0.9307622456065381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8285061099694687</v>
+        <v>0.8381263419228446</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8794664230979901</v>
+        <v>0.8568799192923544</v>
       </c>
     </row>
   </sheetData>
